--- a/MelboR1/Earnings.xlsx
+++ b/MelboR1/Earnings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plb32/PycharmProjects/MelboR1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3914B3-B6A0-4B4F-9A36-A767F898C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44487171-2FB1-5141-9210-5065BE788E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3680" windowWidth="27640" windowHeight="16940" xr2:uid="{A3028B5D-C2A2-594A-960B-31481A2A63DD}"/>
+    <workbookView xWindow="560" yWindow="1240" windowWidth="27640" windowHeight="16940" xr2:uid="{A3028B5D-C2A2-594A-960B-31481A2A63DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t># holdings -- begin</t>
   </si>
@@ -62,24 +62,6 @@
     <t>cash</t>
   </si>
   <si>
-    <t>cash__initial</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stock__initial</t>
-  </si>
-  <si>
-    <t>stock__shorts</t>
-  </si>
-  <si>
-    <t>stock__buy</t>
-  </si>
-  <si>
-    <t>stock__sell</t>
-  </si>
-  <si>
     <t>cogent-ace</t>
   </si>
   <si>
@@ -150,6 +132,9 @@
   </si>
   <si>
     <t># holdings -- end</t>
+  </si>
+  <si>
+    <t>FINAL</t>
   </si>
 </sst>
 </file>
@@ -501,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19162C09-A35A-AE4E-8555-B4A7160F2E9E}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,30 +522,15 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -572,36 +542,22 @@
         <v>910</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>22800</v>
       </c>
       <c r="H3">
-        <v>22800</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <f>MIN(80,MAX(40,10+G5/500))</f>
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2029</v>
@@ -613,36 +569,22 @@
         <v>910</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>14375</v>
       </c>
       <c r="H4">
-        <v>14375</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H4:H13" si="0">MIN(80,MAX(40,10+G6/500))</f>
+        <v>57.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2030</v>
@@ -654,36 +596,22 @@
         <v>910</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>31850</v>
       </c>
       <c r="H5">
-        <v>30705</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>71.490000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2031</v>
@@ -695,36 +623,22 @@
         <v>910</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>23615</v>
       </c>
       <c r="H6">
-        <v>23345</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2032</v>
@@ -736,36 +650,22 @@
         <v>910</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>30745</v>
       </c>
       <c r="H7">
-        <v>30565</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2033</v>
@@ -777,36 +677,22 @@
         <v>910</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>26470</v>
       </c>
       <c r="H8">
-        <v>26470</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>63.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>2034</v>
@@ -818,36 +704,22 @@
         <v>910</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>17900</v>
       </c>
       <c r="H9">
-        <v>19325</v>
-      </c>
-      <c r="I9">
-        <v>43</v>
-      </c>
-      <c r="J9">
-        <v>32</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2035</v>
@@ -859,36 +731,22 @@
         <v>910</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>26695</v>
       </c>
       <c r="H10">
-        <v>26080</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2036</v>
@@ -900,36 +758,22 @@
         <v>910</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>14860</v>
       </c>
       <c r="H11">
-        <v>15645</v>
-      </c>
-      <c r="I11">
-        <v>36</v>
-      </c>
-      <c r="J11">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>57.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2037</v>
@@ -941,36 +785,22 @@
         <v>910</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>22800</v>
       </c>
       <c r="H12">
-        <v>22800</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2038</v>
@@ -982,33 +812,19 @@
         <v>910</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>23680</v>
       </c>
       <c r="H13">
-        <v>23680</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
